--- a/data/trans_camb/POLIPATOLOGIA_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Edad-trans_camb.xlsx
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5517916754347294</v>
+        <v>0.5548845017923224</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2916628167281731</v>
+        <v>0.2893594857207694</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.006099000552669</v>
+        <v>1.192193631780517</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>2.11772075085115</v>
+        <v>1.999197990918562</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.277312448902602</v>
+        <v>1.185231561450824</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.210951204468323</v>
+        <v>1.20943420357578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.926725614901279</v>
+        <v>4.818976816961971</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.773882501314336</v>
+        <v>0.6667216765388522</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4731768512926541</v>
+        <v>0.59141603066861</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.559057506380419</v>
+        <v>2.632445128520255</v>
       </c>
     </row>
     <row r="7">
@@ -863,31 +863,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2740760707121896</v>
+        <v>-0.273915756063488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8124082917434563</v>
+        <v>-0.7709344652815158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1371739906217859</v>
+        <v>-0.1389727395705011</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.123056016135117</v>
+        <v>-2.041010755161729</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.215524989814873</v>
+        <v>-2.239492769745667</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8215241560653567</v>
+        <v>-0.8033673890430144</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9117610328903119</v>
+        <v>-0.9505473925748843</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.064317220318824</v>
+        <v>-1.063051002009555</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.144391685299493</v>
+        <v>-0.168549121902498</v>
       </c>
     </row>
     <row r="12">
@@ -898,31 +898,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4832066469687698</v>
+        <v>0.4558958630708797</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.636862460153212</v>
+        <v>1.60256182052276</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7830409988548831</v>
+        <v>0.8617004858103792</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.573562526423384</v>
+        <v>0.5081846209248566</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.997904485683483</v>
+        <v>3.092015029750532</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4740534811381374</v>
+        <v>0.5136352014688624</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2499069499692146</v>
+        <v>0.2869757454221151</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.741196371846454</v>
+        <v>1.860980183063703</v>
       </c>
     </row>
     <row r="13">
@@ -971,22 +971,22 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.813353104204481</v>
+        <v>-0.7909371683129679</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8189521681759085</v>
+        <v>-0.8175289456032276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3716697529297896</v>
+        <v>-0.3918283706926442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7510631693187737</v>
+        <v>-0.7801076450086638</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8168147195058799</v>
+        <v>-0.8146958839227257</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1759743430799608</v>
+        <v>-0.1525125900884622</v>
       </c>
     </row>
     <row r="15">
@@ -1000,22 +1000,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>0.8809652224494733</v>
+        <v>0.9881161864709245</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6990605620771642</v>
+        <v>0.6320161490301442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.954358582936916</v>
+        <v>2.913817419441887</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.051077270983267</v>
+        <v>1.156592231014351</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6764306909425835</v>
+        <v>0.7601165288865449</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.999236339786754</v>
+        <v>3.727843769735118</v>
       </c>
     </row>
     <row r="16">
@@ -1045,7 +1045,7 @@
         <v>0.3718157130226912</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.771251494974312</v>
+        <v>2.771251494974311</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3845845049981305</v>
@@ -1054,7 +1054,7 @@
         <v>-0.05519068995365958</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.488315501493692</v>
+        <v>2.488315501493691</v>
       </c>
     </row>
     <row r="17">
@@ -1065,31 +1065,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.345156067968467</v>
+        <v>-1.328470482940538</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.431054930825181</v>
+        <v>-1.405661304146278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7496955470544635</v>
+        <v>0.8846612977014636</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3948683225750311</v>
+        <v>-0.4074324316127193</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.088070620050149</v>
+        <v>-1.224339028335447</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.132713051406851</v>
+        <v>1.008811282333254</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5295954145881288</v>
+        <v>-0.5471481033450463</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9134148146639117</v>
+        <v>-0.9582195777894705</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.379928913994466</v>
+        <v>1.303948385993873</v>
       </c>
     </row>
     <row r="18">
@@ -1100,31 +1100,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3691206742404218</v>
+        <v>0.402020476870128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3737105431900067</v>
+        <v>0.4363596432170044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.145682098126331</v>
+        <v>4.002469937174958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.136063551690363</v>
+        <v>2.941834315201392</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.963717781885456</v>
+        <v>1.817980106629176</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.711051767710258</v>
+        <v>4.580226407473821</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.505540295281883</v>
+        <v>1.403293587158129</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8515186027936253</v>
+        <v>0.7840075539416083</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.754795903596889</v>
+        <v>3.841321249269706</v>
       </c>
     </row>
     <row r="19">
@@ -1141,7 +1141,7 @@
         <v>-0.5354530346677204</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.838355949576637</v>
+        <v>2.838355949576638</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5668277267131895</v>
@@ -1159,7 +1159,7 @@
         <v>-0.03889666165972246</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.753686468596593</v>
+        <v>1.753686468596592</v>
       </c>
     </row>
     <row r="20">
@@ -1169,28 +1169,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>0.1928065384710538</v>
+        <v>0.4231790972998707</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1757175226837415</v>
+        <v>-0.1748942489750895</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3982594938695546</v>
+        <v>-0.4387766393036415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3270334807505039</v>
+        <v>0.2685133196195754</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3002288173190173</v>
+        <v>-0.3008530122255946</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4838508354433511</v>
+        <v>-0.513674729496</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7373464264660219</v>
+        <v>0.6356741913213911</v>
       </c>
     </row>
     <row r="21">
@@ -1200,28 +1202,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr"/>
+      <c r="C21" s="6" t="n">
+        <v>2.788075657561888</v>
+      </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>10.91903814132702</v>
+        <v>12.1521050407543</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.562191849591298</v>
+        <v>2.223922283632393</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.659564772571707</v>
+        <v>1.505346217980064</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.644282922202588</v>
+        <v>3.45502683098877</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.599159459302318</v>
+        <v>1.389296087528133</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8342439774947329</v>
+        <v>0.7967546143416624</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.042273650005917</v>
+        <v>3.643359266172482</v>
       </c>
     </row>
     <row r="22">
@@ -1260,7 +1264,7 @@
         <v>1.129331422289882</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.180354496233456</v>
+        <v>6.180354496233458</v>
       </c>
     </row>
     <row r="23">
@@ -1271,31 +1275,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.88454239566057</v>
+        <v>-2.283957735600872</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.611340118718671</v>
+        <v>-1.56970906936004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.266082856115303</v>
+        <v>1.993080266718517</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.284529294855918</v>
+        <v>-1.570965177466007</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.821870657835861</v>
+        <v>-1.136517092278019</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.000464317945371</v>
+        <v>4.826969446102329</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9922038196417368</v>
+        <v>-0.9281510835884129</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3919096589450689</v>
+        <v>-0.5350526298066273</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.436304370201973</v>
+        <v>4.023621402654241</v>
       </c>
     </row>
     <row r="24">
@@ -1306,31 +1310,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.890801776661492</v>
+        <v>1.757371181927142</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.426261955728506</v>
+        <v>2.211611412896365</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.958736306086855</v>
+        <v>6.638347558499976</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.423638293421206</v>
+        <v>4.498424528814623</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.915025629466588</v>
+        <v>4.557464878107743</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.31944027149717</v>
+        <v>10.428579861101</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.422075018565524</v>
+        <v>2.565677513246799</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.073751327177847</v>
+        <v>2.88279040396491</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.905814800619916</v>
+        <v>7.837974524689654</v>
       </c>
     </row>
     <row r="25">
@@ -1376,31 +1380,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6163980488290095</v>
+        <v>-0.6533927580463891</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5096234121191977</v>
+        <v>-0.5087529063820431</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4872228902130873</v>
+        <v>0.4531051725387881</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2074817119718928</v>
+        <v>-0.2615768398321883</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1375156054744678</v>
+        <v>-0.1764200695342165</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6899188207017488</v>
+        <v>0.6736640659232497</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.228042746372887</v>
+        <v>-0.2122288989775773</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.10745667838452</v>
+        <v>-0.143328026728446</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9467453316005432</v>
+        <v>0.88043255333887</v>
       </c>
     </row>
     <row r="27">
@@ -1411,31 +1415,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.906256733711839</v>
+        <v>1.577718082020759</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.15382301523263</v>
+        <v>2.02517083537858</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5.258576972511172</v>
+        <v>5.234667254974614</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.279887745019812</v>
+        <v>1.132295735982973</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.344333745268915</v>
+        <v>1.24401470611013</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.875725205861026</v>
+        <v>2.905276199459437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8746357112271624</v>
+        <v>0.9069804513260411</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.144621267972898</v>
+        <v>1.038872795455153</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.831441206285135</v>
+        <v>3.019258307869957</v>
       </c>
     </row>
     <row r="28">
@@ -1465,7 +1469,7 @@
         <v>5.512216393052515</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.773156521388053</v>
+        <v>8.773156521388056</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.785721966574108</v>
@@ -1485,31 +1489,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.366706963308197</v>
+        <v>-5.023344529175029</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.389271247838892</v>
+        <v>-4.33686350884694</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.161080266349474</v>
+        <v>1.233543176642106</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4888082688395936</v>
+        <v>0.9456486425661957</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8362694128503828</v>
+        <v>1.107084977739286</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.900853785422989</v>
+        <v>4.883773136204066</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.194538828658606</v>
+        <v>-1.172868305128526</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.4077462952990891</v>
+        <v>-0.4240529003662815</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.078180866991452</v>
+        <v>4.377281128620822</v>
       </c>
     </row>
     <row r="30">
@@ -1520,31 +1524,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9718787866042857</v>
+        <v>1.219779677491877</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.374897377751565</v>
+        <v>2.381427430524798</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.878487275754417</v>
+        <v>7.732197386778493</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.751904646657069</v>
+        <v>10.36487140356714</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.821618328163476</v>
+        <v>10.25217019996272</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.34879003895474</v>
+        <v>12.43141760855685</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.441023558210326</v>
+        <v>4.365439362886091</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.123877027583439</v>
+        <v>5.397074543202601</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.384487967606049</v>
+        <v>9.419269170231775</v>
       </c>
     </row>
     <row r="31">
@@ -1570,7 +1574,7 @@
         <v>0.536548426033812</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.853961997724168</v>
+        <v>0.8539619977241683</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2164718868636929</v>
@@ -1590,31 +1594,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6394386744278773</v>
+        <v>-0.6383845476832689</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5312082334817821</v>
+        <v>-0.5447399640849873</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1357648145543951</v>
+        <v>0.1397174454638096</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03414571433834102</v>
+        <v>0.07045166806893222</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05412122733083074</v>
+        <v>0.08470648709525355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3536465381385219</v>
+        <v>0.3848981697313811</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.122109562086187</v>
+        <v>-0.124161519992188</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04594806909762575</v>
+        <v>-0.05894143687668911</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4107577067319442</v>
+        <v>0.4530233563494091</v>
       </c>
     </row>
     <row r="33">
@@ -1625,31 +1629,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2533498678362094</v>
+        <v>0.3055048707572673</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.61156794984222</v>
+        <v>0.5761173980216879</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.749050463104646</v>
+        <v>1.819710686885457</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.23922740144313</v>
+        <v>1.276641259894938</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.157657263241439</v>
+        <v>1.253996327462443</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.491698634105455</v>
+        <v>1.650689511662282</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6370286818637531</v>
+        <v>0.6155880706192542</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7466763604094313</v>
+        <v>0.7909835385342102</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.41550710212654</v>
+        <v>1.391999907106652</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1674,7 @@
         <v>-3.7497378107779</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.173321876935937</v>
+        <v>2.173321876935939</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3.255198149566038</v>
@@ -1688,7 +1692,7 @@
         <v>1.587414629843129</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>7.430562480401834</v>
+        <v>7.430562480401837</v>
       </c>
     </row>
     <row r="35">
@@ -1699,31 +1703,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.685319289681998</v>
+        <v>-3.68635667949858</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.533143265694775</v>
+        <v>-8.47538531151455</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.667241708671252</v>
+        <v>-2.688049050890542</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.174445842064471</v>
+        <v>-2.741207083189494</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.005381970291902584</v>
+        <v>0.6289323396249256</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>7.561356370615313</v>
+        <v>7.175087138551619</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.24940110428983</v>
+        <v>-1.812300673464895</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.301947079579151</v>
+        <v>-1.950393661965601</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.989908842094531</v>
+        <v>3.617860736455825</v>
       </c>
     </row>
     <row r="36">
@@ -1734,31 +1738,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.534885199682077</v>
+        <v>7.634654347299661</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7191465640287561</v>
+        <v>0.7062980597097432</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.314907363153973</v>
+        <v>6.708049607896641</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.618361688159077</v>
+        <v>9.038254957714772</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.18139889082092</v>
+        <v>12.99426014037772</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>17.52881850947497</v>
+        <v>17.5109303230769</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.651466785363136</v>
+        <v>6.339327017588501</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.435526924811252</v>
+        <v>5.294481435562512</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.95781872111592</v>
+        <v>10.96917222796549</v>
       </c>
     </row>
     <row r="37">
@@ -1775,7 +1779,7 @@
         <v>-0.3072430987494044</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1780759567056619</v>
+        <v>0.1780759567056621</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1927132898097207</v>
@@ -1793,7 +1797,7 @@
         <v>0.1077410920098961</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.5043275404141707</v>
+        <v>0.5043275404141708</v>
       </c>
     </row>
     <row r="38">
@@ -1804,31 +1808,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2671898215909443</v>
+        <v>-0.2655348339358473</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5719690802948141</v>
+        <v>-0.5678718553314044</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1788997173315481</v>
+        <v>-0.1751357549701592</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1181239625001321</v>
+        <v>-0.1422200933516102</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0007740045037322916</v>
+        <v>0.0131717006367574</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3754858110463851</v>
+        <v>0.3450780076058195</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.0795409677090344</v>
+        <v>-0.1051899655744863</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.145893098319723</v>
+        <v>-0.1137918449124949</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2338450172464344</v>
+        <v>0.211128736872668</v>
       </c>
     </row>
     <row r="39">
@@ -1839,31 +1843,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7747320210033327</v>
+        <v>0.740435657879555</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.09012371534337982</v>
+        <v>0.09888356526886721</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6776032715481137</v>
+        <v>0.7126553234419208</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6631753976257826</v>
+        <v>0.6079260139537755</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8850213215783145</v>
+        <v>0.897858879636345</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.279477111884553</v>
+        <v>1.261807613099564</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5329564108998296</v>
+        <v>0.4878012593308754</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.441491681705374</v>
+        <v>0.4050431075036467</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8661872688702061</v>
+        <v>0.8547597780674893</v>
       </c>
     </row>
     <row r="40">
@@ -1893,7 +1897,7 @@
         <v>5.550346517334543</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>25.03880190794509</v>
+        <v>25.03880190794508</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>9.099989142514453</v>
@@ -1902,7 +1906,7 @@
         <v>4.001766119836031</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>21.44984109398691</v>
+        <v>21.4498410939869</v>
       </c>
     </row>
     <row r="41">
@@ -1913,31 +1917,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.113502267850662</v>
+        <v>-3.388100435947271</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.4385842888529</v>
+        <v>-4.716664980638916</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9.478025515842781</v>
+        <v>9.167151375815838</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5.517932300708775</v>
+        <v>5.465440695161396</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.860681104482686</v>
+        <v>-1.909731025180966</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>19.20138942529802</v>
+        <v>18.94043595822676</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.847958244808551</v>
+        <v>3.574392320857148</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.8838645589387585</v>
+        <v>-0.5950148853811087</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>16.82550564849354</v>
+        <v>16.94478998505213</v>
       </c>
     </row>
     <row r="42">
@@ -1948,31 +1952,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.46163630820022</v>
+        <v>10.58851696181427</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>8.123889603415257</v>
+        <v>8.033217260676846</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22.53587567655863</v>
+        <v>22.53504348296014</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19.59140986595299</v>
+        <v>19.84430273023962</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>12.54488007618569</v>
+        <v>12.26699738343632</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>30.60141928151973</v>
+        <v>30.54980201017338</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>14.27752018655947</v>
+        <v>14.1098323160278</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.448292796767811</v>
+        <v>8.76256454231472</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>25.51773532645223</v>
+        <v>25.78854439654162</v>
       </c>
     </row>
     <row r="43">
@@ -1998,7 +2002,7 @@
         <v>0.244564213656032</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.103281548346732</v>
+        <v>1.103281548346731</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4452070115500177</v>
@@ -2007,7 +2011,7 @@
         <v>0.195782028663171</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.049410005014356</v>
+        <v>1.049410005014355</v>
       </c>
     </row>
     <row r="44">
@@ -2018,31 +2022,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2194451304491526</v>
+        <v>-0.1806617174987732</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2671377088785726</v>
+        <v>-0.2363187776766156</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.414219660104058</v>
+        <v>0.4347151526464745</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2026147210961031</v>
+        <v>0.1924703011484447</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07232563807575987</v>
+        <v>-0.07184160924084627</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7124867326197809</v>
+        <v>0.6889893544720288</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.167144352785928</v>
+        <v>0.1551157193653559</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.04015450357599559</v>
+        <v>-0.03015829165137335</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.7033286314611829</v>
+        <v>0.7351705134155831</v>
       </c>
     </row>
     <row r="45">
@@ -2053,31 +2057,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7515457461536321</v>
+        <v>0.75975408970523</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6304183158114045</v>
+        <v>0.597671478358928</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.745168178447239</v>
+        <v>1.733744631896052</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.002422216593764</v>
+        <v>1.075734628571696</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6519083230254745</v>
+        <v>0.6487763578120869</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.643764798059444</v>
+        <v>1.636468274409887</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7971966963675183</v>
+        <v>0.7992810868362061</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4821640479088694</v>
+        <v>0.4941813203210768</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.470373757019065</v>
+        <v>1.503870018480701</v>
       </c>
     </row>
     <row r="46">
@@ -2098,7 +2102,7 @@
         <v>0.1068083411705396</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4.982720053527584</v>
+        <v>4.982720053527583</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.160194112422454</v>
@@ -2107,7 +2111,7 @@
         <v>3.09086956325979</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>9.683625302167117</v>
+        <v>9.683625302167115</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.799935999496088</v>
@@ -2127,31 +2131,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.5806759370273757</v>
+        <v>-0.4831400478054188</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.7490418011058427</v>
+        <v>-0.7398954957958445</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.936366292350775</v>
+        <v>3.883040114250232</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.868788126801127</v>
+        <v>1.728789313328089</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.570408155568383</v>
+        <v>1.67067516708186</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>8.340636479774133</v>
+        <v>8.340100800924695</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.9332524757349596</v>
+        <v>0.9634820772659748</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.8380621221777098</v>
+        <v>0.7995521752478545</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>6.570442530842964</v>
+        <v>6.553138241331233</v>
       </c>
     </row>
     <row r="48">
@@ -2162,31 +2166,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.258363690059552</v>
+        <v>1.296859731740173</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.021305370598101</v>
+        <v>0.9645541933863581</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.078835661249318</v>
+        <v>6.0152181197178</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.551809456045055</v>
+        <v>4.496307818678113</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.473409049486089</v>
+        <v>4.568300581077354</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.98413005646824</v>
+        <v>10.92312602141718</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.572859030424866</v>
+        <v>2.63147316213156</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.508342790163127</v>
+        <v>2.430272189610895</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>8.292133118141463</v>
+        <v>8.28362889224841</v>
       </c>
     </row>
     <row r="49">
@@ -2232,31 +2236,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1476712575512753</v>
+        <v>-0.1283959828792567</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1935464164235813</v>
+        <v>-0.1988972623649715</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>1.018220373244018</v>
+        <v>0.9934198095563863</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2539142533322335</v>
+        <v>0.2465089072211967</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2083543764238682</v>
+        <v>0.218244069393203</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.117840450760049</v>
+        <v>1.115792657617241</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1698163536070771</v>
+        <v>0.1777953167939458</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1577337262249947</v>
+        <v>0.1448311621330715</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.169908457910118</v>
+        <v>1.185923558454982</v>
       </c>
     </row>
     <row r="51">
@@ -2267,31 +2271,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4137811754594837</v>
+        <v>0.4350208538519528</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3363937464645098</v>
+        <v>0.3183343483617171</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.068544744433684</v>
+        <v>1.989732667769005</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.752102190004718</v>
+        <v>0.7526565520881207</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7326580554290186</v>
+        <v>0.743202652455542</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.839062730097304</v>
+        <v>1.80077571072467</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5410628658894309</v>
+        <v>0.5656568071656644</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5383166861210942</v>
+        <v>0.5155171660450194</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.782883803365356</v>
+        <v>1.778122401882751</v>
       </c>
     </row>
     <row r="52">
